--- a/excel_with_subclasses/with_count/quarter_with_count.xlsx
+++ b/excel_with_subclasses/with_count/quarter_with_count.xlsx
@@ -1119,7 +1119,7 @@
         <v>218</v>
       </c>
       <c r="D2">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="3" spans="1:4">
